--- a/data/metadata_table.xlsx
+++ b/data/metadata_table.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -10,17 +10,17 @@
   </mc:AlternateContent>
   <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{88FD3C37-2EE6-453F-9F23-FAD9AF9E6ED9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2304" yWindow="2304" windowWidth="23040" windowHeight="12204" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2304" yWindow="2304" windowWidth="23040" windowHeight="12204"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="0" fullCalcOnLoad="true"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="420" uniqueCount="256">
   <si>
     <t>ID</t>
   </si>
@@ -140,6 +140,630 @@
   </si>
   <si>
     <t>Protocol</t>
+  </si>
+  <si>
+    <t>LICI</t>
+  </si>
+  <si>
+    <t>RS</t>
+  </si>
+  <si>
+    <t>SICF14</t>
+  </si>
+  <si>
+    <t>SICF30</t>
+  </si>
+  <si>
+    <t>SICF70</t>
+  </si>
+  <si>
+    <t>Coil orientation</t>
+  </si>
+  <si>
+    <t>Motor mapping</t>
+  </si>
+  <si>
+    <t>Stimulus-response</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>ID01</t>
+  </si>
+  <si>
+    <t>ID02</t>
+  </si>
+  <si>
+    <t>ID03</t>
+  </si>
+  <si>
+    <t>ID04</t>
+  </si>
+  <si>
+    <t>ID05</t>
+  </si>
+  <si>
+    <t>ID06</t>
+  </si>
+  <si>
+    <t>ID07</t>
+  </si>
+  <si>
+    <t>ID08</t>
+  </si>
+  <si>
+    <t>ID09</t>
+  </si>
+  <si>
+    <t>ID10</t>
+  </si>
+  <si>
+    <t>MEPs</t>
+  </si>
+  <si>
+    <t>ID01.mat</t>
+  </si>
+  <si>
+    <t>ID02.mat</t>
+  </si>
+  <si>
+    <t>ID03.mat</t>
+  </si>
+  <si>
+    <t>ID04.mat</t>
+  </si>
+  <si>
+    <t>ID05.mat</t>
+  </si>
+  <si>
+    <t>ID06.mat</t>
+  </si>
+  <si>
+    <t>ID07.mat</t>
+  </si>
+  <si>
+    <t>ID09.mat</t>
+  </si>
+  <si>
+    <t>ID10_1.mat</t>
+  </si>
+  <si>
+    <t>ID10_2.mat</t>
+  </si>
+  <si>
+    <t>Session</t>
+  </si>
+  <si>
+    <t>Hemis</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>AgeGroup</t>
+  </si>
+  <si>
+    <t>Child</t>
+  </si>
+  <si>
+    <t>Adult</t>
+  </si>
+  <si>
+    <t>Muscle</t>
+  </si>
+  <si>
+    <t>FDI</t>
+  </si>
+  <si>
+    <t>TA</t>
+  </si>
+  <si>
+    <t>FDI</t>
+  </si>
+  <si>
+    <t>TA</t>
+  </si>
+  <si>
+    <t>APB</t>
+  </si>
+  <si>
+    <t>ECR</t>
+  </si>
+  <si>
+    <t>SequenceType</t>
+  </si>
+  <si>
+    <t>single</t>
+  </si>
+  <si>
+    <t>paired</t>
+  </si>
+  <si>
+    <t>rTMS</t>
+  </si>
+  <si>
+    <t>paired</t>
+  </si>
+  <si>
+    <t>single_pulse</t>
+  </si>
+  <si>
+    <t>Protocol</t>
+  </si>
+  <si>
+    <t>Stimulus-response</t>
+  </si>
+  <si>
+    <t>LICI</t>
+  </si>
+  <si>
+    <t>RS</t>
+  </si>
+  <si>
+    <t>SICF14</t>
+  </si>
+  <si>
+    <t>SICF30</t>
+  </si>
+  <si>
+    <t>SICF70</t>
+  </si>
+  <si>
+    <t>Coil orientation</t>
+  </si>
+  <si>
+    <t>Motor mapping</t>
+  </si>
+  <si>
+    <t>Stimulus-response</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>ID01</t>
+  </si>
+  <si>
+    <t>ID02</t>
+  </si>
+  <si>
+    <t>ID03</t>
+  </si>
+  <si>
+    <t>ID04</t>
+  </si>
+  <si>
+    <t>ID05</t>
+  </si>
+  <si>
+    <t>ID06</t>
+  </si>
+  <si>
+    <t>ID07</t>
+  </si>
+  <si>
+    <t>ID08</t>
+  </si>
+  <si>
+    <t>ID09</t>
+  </si>
+  <si>
+    <t>ID10</t>
+  </si>
+  <si>
+    <t>MEPs</t>
+  </si>
+  <si>
+    <t>ID01.mat</t>
+  </si>
+  <si>
+    <t>ID02.mat</t>
+  </si>
+  <si>
+    <t>ID03.mat</t>
+  </si>
+  <si>
+    <t>ID04.mat</t>
+  </si>
+  <si>
+    <t>ID05.mat</t>
+  </si>
+  <si>
+    <t>ID06.mat</t>
+  </si>
+  <si>
+    <t>ID07.mat</t>
+  </si>
+  <si>
+    <t>ID09.mat</t>
+  </si>
+  <si>
+    <t>ID10_1.mat</t>
+  </si>
+  <si>
+    <t>ID10_2.mat</t>
+  </si>
+  <si>
+    <t>Session</t>
+  </si>
+  <si>
+    <t>Hemis</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>AgeGroup</t>
+  </si>
+  <si>
+    <t>Child</t>
+  </si>
+  <si>
+    <t>Adult</t>
+  </si>
+  <si>
+    <t>Muscle</t>
+  </si>
+  <si>
+    <t>FDI</t>
+  </si>
+  <si>
+    <t>TA</t>
+  </si>
+  <si>
+    <t>FDI</t>
+  </si>
+  <si>
+    <t>TA</t>
+  </si>
+  <si>
+    <t>APB</t>
+  </si>
+  <si>
+    <t>ECR</t>
+  </si>
+  <si>
+    <t>SequenceType</t>
+  </si>
+  <si>
+    <t>single</t>
+  </si>
+  <si>
+    <t>paired</t>
+  </si>
+  <si>
+    <t>rTMS</t>
+  </si>
+  <si>
+    <t>paired</t>
+  </si>
+  <si>
+    <t>single_pulse</t>
+  </si>
+  <si>
+    <t>Protocol</t>
+  </si>
+  <si>
+    <t>Stimulus-response</t>
+  </si>
+  <si>
+    <t>LICI</t>
+  </si>
+  <si>
+    <t>RS</t>
+  </si>
+  <si>
+    <t>SICF14</t>
+  </si>
+  <si>
+    <t>SICF30</t>
+  </si>
+  <si>
+    <t>SICF70</t>
+  </si>
+  <si>
+    <t>Coil orientation</t>
+  </si>
+  <si>
+    <t>Motor mapping</t>
+  </si>
+  <si>
+    <t>Stimulus-response</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>ID01</t>
+  </si>
+  <si>
+    <t>ID02</t>
+  </si>
+  <si>
+    <t>ID03</t>
+  </si>
+  <si>
+    <t>ID04</t>
+  </si>
+  <si>
+    <t>ID05</t>
+  </si>
+  <si>
+    <t>ID06</t>
+  </si>
+  <si>
+    <t>ID07</t>
+  </si>
+  <si>
+    <t>ID08</t>
+  </si>
+  <si>
+    <t>ID09</t>
+  </si>
+  <si>
+    <t>ID10</t>
+  </si>
+  <si>
+    <t>MEPs</t>
+  </si>
+  <si>
+    <t>ID01.mat</t>
+  </si>
+  <si>
+    <t>ID02.mat</t>
+  </si>
+  <si>
+    <t>ID03.mat</t>
+  </si>
+  <si>
+    <t>ID04.mat</t>
+  </si>
+  <si>
+    <t>ID05.mat</t>
+  </si>
+  <si>
+    <t>ID06.mat</t>
+  </si>
+  <si>
+    <t>ID07.mat</t>
+  </si>
+  <si>
+    <t>ID09.mat</t>
+  </si>
+  <si>
+    <t>ID10_1.mat</t>
+  </si>
+  <si>
+    <t>ID10_2.mat</t>
+  </si>
+  <si>
+    <t>Session</t>
+  </si>
+  <si>
+    <t>Hemis</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>AgeGroup</t>
+  </si>
+  <si>
+    <t>Child</t>
+  </si>
+  <si>
+    <t>Adult</t>
+  </si>
+  <si>
+    <t>Muscle</t>
+  </si>
+  <si>
+    <t>FDI</t>
+  </si>
+  <si>
+    <t>TA</t>
+  </si>
+  <si>
+    <t>FDI</t>
+  </si>
+  <si>
+    <t>TA</t>
+  </si>
+  <si>
+    <t>APB</t>
+  </si>
+  <si>
+    <t>ECR</t>
+  </si>
+  <si>
+    <t>SequenceType</t>
+  </si>
+  <si>
+    <t>single</t>
+  </si>
+  <si>
+    <t>paired</t>
+  </si>
+  <si>
+    <t>rTMS</t>
+  </si>
+  <si>
+    <t>paired</t>
+  </si>
+  <si>
+    <t>single_pulse</t>
+  </si>
+  <si>
+    <t>Protocol</t>
+  </si>
+  <si>
+    <t>Stimulus-response</t>
+  </si>
+  <si>
+    <t>LICI</t>
+  </si>
+  <si>
+    <t>RS</t>
+  </si>
+  <si>
+    <t>SICF14</t>
+  </si>
+  <si>
+    <t>SICF30</t>
+  </si>
+  <si>
+    <t>SICF70</t>
+  </si>
+  <si>
+    <t>Coil orientation</t>
+  </si>
+  <si>
+    <t>Motor mapping</t>
+  </si>
+  <si>
+    <t>Stimulus-response</t>
+  </si>
+  <si>
+    <t>ID</t>
+  </si>
+  <si>
+    <t>ID01</t>
+  </si>
+  <si>
+    <t>ID02</t>
+  </si>
+  <si>
+    <t>ID03</t>
+  </si>
+  <si>
+    <t>ID04</t>
+  </si>
+  <si>
+    <t>ID05</t>
+  </si>
+  <si>
+    <t>ID06</t>
+  </si>
+  <si>
+    <t>ID07</t>
+  </si>
+  <si>
+    <t>ID08</t>
+  </si>
+  <si>
+    <t>ID09</t>
+  </si>
+  <si>
+    <t>ID10</t>
+  </si>
+  <si>
+    <t>MEPs</t>
+  </si>
+  <si>
+    <t>ID01.mat</t>
+  </si>
+  <si>
+    <t>ID02.mat</t>
+  </si>
+  <si>
+    <t>ID03.mat</t>
+  </si>
+  <si>
+    <t>ID04.mat</t>
+  </si>
+  <si>
+    <t>ID05.mat</t>
+  </si>
+  <si>
+    <t>ID06.mat</t>
+  </si>
+  <si>
+    <t>ID07.mat</t>
+  </si>
+  <si>
+    <t>ID09.mat</t>
+  </si>
+  <si>
+    <t>ID10_1.mat</t>
+  </si>
+  <si>
+    <t>ID10_2.mat</t>
+  </si>
+  <si>
+    <t>Session</t>
+  </si>
+  <si>
+    <t>Hemis</t>
+  </si>
+  <si>
+    <t>L</t>
+  </si>
+  <si>
+    <t>R</t>
+  </si>
+  <si>
+    <t>AgeGroup</t>
+  </si>
+  <si>
+    <t>Child</t>
+  </si>
+  <si>
+    <t>Adult</t>
+  </si>
+  <si>
+    <t>Muscle</t>
+  </si>
+  <si>
+    <t>FDI</t>
+  </si>
+  <si>
+    <t>TA</t>
+  </si>
+  <si>
+    <t>FDI</t>
+  </si>
+  <si>
+    <t>TA</t>
+  </si>
+  <si>
+    <t>APB</t>
+  </si>
+  <si>
+    <t>ECR</t>
+  </si>
+  <si>
+    <t>SequenceType</t>
+  </si>
+  <si>
+    <t>single</t>
+  </si>
+  <si>
+    <t>paired</t>
+  </si>
+  <si>
+    <t>rTMS</t>
+  </si>
+  <si>
+    <t>paired</t>
+  </si>
+  <si>
+    <t>single_pulse</t>
+  </si>
+  <si>
+    <t>Protocol</t>
+  </si>
+  <si>
+    <t>Stimulus-response</t>
   </si>
   <si>
     <t>LICI</t>
@@ -184,7 +808,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -199,13 +823,15 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true" applyBorder="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -522,330 +1148,330 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="true" workbookViewId="0">
       <selection activeCell="K10" sqref="K10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="4.77734375" customWidth="1"/>
-    <col min="2" max="2" width="10.5546875" customWidth="1"/>
-    <col min="3" max="3" width="7" customWidth="1"/>
-    <col min="4" max="4" width="6" customWidth="1"/>
-    <col min="5" max="5" width="9" customWidth="1"/>
-    <col min="6" max="6" width="6.77734375" customWidth="1"/>
-    <col min="7" max="7" width="12.6640625" customWidth="1"/>
-    <col min="8" max="8" width="15.77734375" customWidth="1"/>
+    <col min="1" max="1" width="5" customWidth="true"/>
+    <col min="2" max="2" width="11" customWidth="true"/>
+    <col min="3" max="3" width="7.85546875" customWidth="true"/>
+    <col min="4" max="4" width="6.7109375" customWidth="true"/>
+    <col min="5" max="5" width="10" customWidth="true"/>
+    <col min="6" max="6" width="7.42578125" customWidth="true"/>
+    <col min="7" max="7" width="14.140625" customWidth="true"/>
+    <col min="8" max="8" width="17.7109375" customWidth="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1">
       <c r="A1" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>215</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="C2" s="0">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>39</v>
+      <c r="D2" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>234</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>241</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>247</v>
       </c>
     </row>
-    <row r="2" spans="1:8">
-      <c r="A2" s="1" t="s">
+    <row r="3">
+      <c r="A3" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>217</v>
+      </c>
+      <c r="C3" s="0">
+        <v>0</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="s">
+        <v>207</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>218</v>
+      </c>
+      <c r="C4" s="0">
+        <v>0</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>219</v>
+      </c>
+      <c r="C5" s="0">
+        <v>0</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="G5" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>220</v>
+      </c>
+      <c r="C6" s="0">
+        <v>0</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="G6" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="H6" s="1" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="C7" s="0">
+        <v>0</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="F7" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="G7" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>222</v>
+      </c>
+      <c r="C8" s="0">
+        <v>0</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="G8" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="H8" s="1" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="B9" s="1"/>
+      <c r="C9" s="0">
+        <v>0</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="s">
+        <v>213</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>223</v>
+      </c>
+      <c r="C10" s="0">
+        <v>0</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="F10" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="G10" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="C11" s="0">
         <v>1</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C2">
-        <v>0</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E2" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="F2" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="G2" s="1" t="s">
-        <v>35</v>
-      </c>
-      <c r="H2" s="1" t="s">
-        <v>47</v>
+      <c r="D11" s="1" t="s">
+        <v>228</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="G11" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>255</v>
       </c>
     </row>
-    <row r="3" spans="1:8">
-      <c r="A3" s="1" t="s">
+    <row r="12">
+      <c r="A12" s="1" t="s">
+        <v>214</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="C12" s="0">
         <v>2</v>
       </c>
-      <c r="B3" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="C3">
-        <v>0</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F3" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="G3" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="H3" s="1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8">
-      <c r="A4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4">
-        <v>0</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="G4" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="H4" s="1" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8">
-      <c r="A5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C5">
-        <v>0</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="G5" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="H5" s="1" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8">
-      <c r="A6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C6">
-        <v>0</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="H6" s="1" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8">
-      <c r="A7" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C7">
-        <v>0</v>
-      </c>
-      <c r="D7" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F7" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="G7" s="1" t="s">
-        <v>36</v>
-      </c>
-      <c r="H7" s="1" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8">
-      <c r="A8" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="C8">
-        <v>0</v>
-      </c>
-      <c r="D8" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F8" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="G8" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="H8" s="1" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8">
-      <c r="A9" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="B9" s="1"/>
-      <c r="C9">
-        <v>0</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>31</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8">
-      <c r="A10" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="C10">
-        <v>0</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F10" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="G10" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8">
-      <c r="A11" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="C11">
-        <v>1</v>
-      </c>
-      <c r="D11" s="1" t="s">
-        <v>24</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="F11" s="1" t="s">
-        <v>33</v>
-      </c>
-      <c r="G11" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8">
-      <c r="A12" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="C12">
-        <v>2</v>
-      </c>
       <c r="D12" s="1" t="s">
-        <v>25</v>
+        <v>229</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>28</v>
+        <v>232</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>33</v>
+        <v>239</v>
       </c>
       <c r="G12" s="1" t="s">
-        <v>38</v>
+        <v>245</v>
       </c>
       <c r="H12" s="1" t="s">
-        <v>47</v>
+        <v>255</v>
       </c>
     </row>
   </sheetData>
